--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3016.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3016.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168176572384634</v>
+        <v>1.316781520843506</v>
       </c>
       <c r="B1">
-        <v>2.165915506351344</v>
+        <v>1.865177392959595</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.790903806686401</v>
       </c>
       <c r="D1">
-        <v>2.33381890257219</v>
+        <v>4.951620101928711</v>
       </c>
       <c r="E1">
-        <v>1.202372045500811</v>
+        <v>1.321988105773926</v>
       </c>
     </row>
   </sheetData>
